--- a/2023년 자료/mkt_2023.xlsx
+++ b/2023년 자료/mkt_2023.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maeng-gun\Desktop\python\my_asset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maeng-gun\Desktop\python\my_asset\2023년 자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -506,7 +506,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -571,7 +571,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -876,14 +876,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">

--- a/2023년 자료/mkt_2023.xlsx
+++ b/2023년 자료/mkt_2023.xlsx
@@ -14,7 +14,10 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$U$57</definedName>
+  </definedNames>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -505,10 +508,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -528,6 +532,13 @@
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -563,17 +574,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="백분율" xfId="2" builtinId="5"/>
+    <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -874,10 +895,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U57"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:U59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I59" sqref="I59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -885,6 +907,10 @@
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
@@ -974,7 +1000,7 @@
       <c r="H2">
         <v>22572209</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="3">
         <v>8159761.6082191784</v>
       </c>
       <c r="J2">
@@ -983,7 +1009,7 @@
       <c r="K2">
         <v>0</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="3">
         <v>60499</v>
       </c>
       <c r="M2">
@@ -1036,7 +1062,7 @@
       <c r="H3">
         <v>17176678</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="3">
         <v>3598372.416438356</v>
       </c>
       <c r="J3">
@@ -1045,7 +1071,7 @@
       <c r="K3">
         <v>13110</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="3">
         <v>72646</v>
       </c>
       <c r="M3">
@@ -1101,7 +1127,7 @@
       <c r="H4">
         <v>10010000</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="3">
         <v>10010000</v>
       </c>
       <c r="J4">
@@ -1110,7 +1136,7 @@
       <c r="K4">
         <v>0</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="3">
         <v>0</v>
       </c>
       <c r="M4">
@@ -1163,7 +1189,7 @@
       <c r="H5">
         <v>10043166</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="3">
         <v>2863967.9452054789</v>
       </c>
       <c r="J5">
@@ -1172,7 +1198,7 @@
       <c r="K5">
         <v>12440</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="3">
         <v>68383</v>
       </c>
       <c r="M5">
@@ -1225,7 +1251,7 @@
       <c r="H6">
         <v>4985110</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="3">
         <v>177551.8630136986</v>
       </c>
       <c r="J6">
@@ -1234,7 +1260,7 @@
       <c r="K6">
         <v>730</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="3">
         <v>-730</v>
       </c>
       <c r="M6">
@@ -1287,7 +1313,7 @@
       <c r="H7">
         <v>3199997</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="3">
         <v>289314.79726027389</v>
       </c>
       <c r="J7">
@@ -1296,7 +1322,7 @@
       <c r="K7">
         <v>0</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="3">
         <v>0</v>
       </c>
       <c r="M7">
@@ -1349,7 +1375,7 @@
       <c r="H8">
         <v>2999220</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="3">
         <v>32868.164383561641</v>
       </c>
       <c r="J8">
@@ -1358,7 +1384,7 @@
       <c r="K8">
         <v>430</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="3">
         <v>-430</v>
       </c>
       <c r="M8">
@@ -1414,7 +1440,7 @@
       <c r="H9">
         <v>3014850</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="3">
         <v>140417.67123287669</v>
       </c>
       <c r="J9">
@@ -1423,7 +1449,7 @@
       <c r="K9">
         <v>440</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="3">
         <v>-440</v>
       </c>
       <c r="M9">
@@ -1479,7 +1505,7 @@
       <c r="H10">
         <v>3013045</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="3">
         <v>33019.67123287671</v>
       </c>
       <c r="J10">
@@ -1488,7 +1514,7 @@
       <c r="K10">
         <v>440</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="3">
         <v>-440</v>
       </c>
       <c r="M10">
@@ -1544,7 +1570,7 @@
       <c r="H11">
         <v>2932800</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="3">
         <v>201034.5205479452</v>
       </c>
       <c r="J11">
@@ -1553,7 +1579,7 @@
       <c r="K11">
         <v>400</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="3">
         <v>-400</v>
       </c>
       <c r="M11">
@@ -1606,7 +1632,7 @@
       <c r="H12">
         <v>2318700</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="3">
         <v>25410.410958904111</v>
       </c>
       <c r="J12">
@@ -1615,7 +1641,7 @@
       <c r="K12">
         <v>700</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="3">
         <v>-700</v>
       </c>
       <c r="M12">
@@ -1668,7 +1694,7 @@
       <c r="H13">
         <v>1992960</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="3">
         <v>54601.643835616444</v>
       </c>
       <c r="J13">
@@ -1677,7 +1703,7 @@
       <c r="K13">
         <v>290</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="3">
         <v>-290</v>
       </c>
       <c r="M13">
@@ -1733,7 +1759,7 @@
       <c r="H14">
         <v>1484900</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="3">
         <v>272570.68493150693</v>
       </c>
       <c r="J14">
@@ -1742,7 +1768,7 @@
       <c r="K14">
         <v>520</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="3">
         <v>17468</v>
       </c>
       <c r="M14">
@@ -1795,7 +1821,7 @@
       <c r="H15">
         <v>956000</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="3">
         <v>146673.9726027397</v>
       </c>
       <c r="J15">
@@ -1804,7 +1830,7 @@
       <c r="K15">
         <v>130</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="3">
         <v>-130</v>
       </c>
       <c r="M15">
@@ -1857,7 +1883,7 @@
       <c r="H16">
         <v>1049029</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="3">
         <v>172443.12328767119</v>
       </c>
       <c r="J16">
@@ -1866,7 +1892,7 @@
       <c r="K16">
         <v>0</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="3">
         <v>14194</v>
       </c>
       <c r="M16">
@@ -1919,7 +1945,7 @@
       <c r="H17">
         <v>239255</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="3">
         <v>627736.36164383567</v>
       </c>
       <c r="J17">
@@ -1928,7 +1954,7 @@
       <c r="K17">
         <v>0</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="3">
         <v>1312</v>
       </c>
       <c r="M17">
@@ -1984,7 +2010,7 @@
       <c r="H18">
         <v>8994</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="3">
         <v>1264.520547945205</v>
       </c>
       <c r="J18">
@@ -1993,7 +2019,7 @@
       <c r="K18">
         <v>0</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="3">
         <v>0</v>
       </c>
       <c r="M18">
@@ -2049,7 +2075,7 @@
       <c r="H19">
         <v>0</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="3">
         <v>6659822.0712328767</v>
       </c>
       <c r="J19">
@@ -2058,7 +2084,7 @@
       <c r="K19">
         <v>30520</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="3">
         <v>185802</v>
       </c>
       <c r="M19">
@@ -2114,7 +2140,7 @@
       <c r="H20">
         <v>0</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="3">
         <v>27397.852054794519</v>
       </c>
       <c r="J20">
@@ -2123,7 +2149,7 @@
       <c r="K20">
         <v>0</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="3">
         <v>0</v>
       </c>
       <c r="M20">
@@ -2179,7 +2205,7 @@
       <c r="H21">
         <v>0</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="3">
         <v>6410958.9041095888</v>
       </c>
       <c r="J21">
@@ -2188,7 +2214,7 @@
       <c r="K21">
         <v>63910</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="3">
         <v>351090</v>
       </c>
       <c r="M21">
@@ -2241,7 +2267,7 @@
       <c r="H22">
         <v>0</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="3">
         <v>18238356.16438356</v>
       </c>
       <c r="J22">
@@ -2250,7 +2276,7 @@
       <c r="K22">
         <v>179480</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="3">
         <v>986020</v>
       </c>
       <c r="M22">
@@ -2303,7 +2329,7 @@
       <c r="H23">
         <v>0</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="3">
         <v>3315068.493150685</v>
       </c>
       <c r="J23">
@@ -2312,7 +2338,7 @@
       <c r="K23">
         <v>42354</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="3">
         <v>232674</v>
       </c>
       <c r="M23">
@@ -2365,7 +2391,7 @@
       <c r="H24">
         <v>0</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="3">
         <v>0</v>
       </c>
       <c r="J24">
@@ -2374,7 +2400,7 @@
       <c r="K24">
         <v>39600</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="3">
         <v>341662</v>
       </c>
       <c r="N24" t="s">
@@ -2418,7 +2444,7 @@
       <c r="H25">
         <v>0</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="3">
         <v>1560792.5232876709</v>
       </c>
       <c r="J25">
@@ -2427,7 +2453,7 @@
       <c r="K25">
         <v>7990</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="3">
         <v>48153</v>
       </c>
       <c r="M25">
@@ -2483,7 +2509,7 @@
       <c r="H26">
         <v>0</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="3">
         <v>0</v>
       </c>
       <c r="J26">
@@ -2492,7 +2518,7 @@
       <c r="K26">
         <v>0</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="3">
         <v>0</v>
       </c>
       <c r="N26" t="s">
@@ -2514,7 +2540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2579,7 +2605,7 @@
         <v>-12.047454701633111</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2644,7 +2670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2709,7 +2735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2771,7 +2797,7 @@
         <v>3.9476050685142829</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2836,7 +2862,7 @@
         <v>10.914671433428961</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2901,7 +2927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2966,7 +2992,7 @@
         <v>25.404230497688861</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -3031,7 +3057,7 @@
         <v>21.208833036967189</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -3096,7 +3122,7 @@
         <v>11.10674289572697</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -3161,7 +3187,7 @@
         <v>12.18894489480771</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -3226,7 +3252,7 @@
         <v>-5.6363448742029956</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -3291,7 +3317,7 @@
         <v>24.38213640030483</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -3356,7 +3382,7 @@
         <v>-7.1131042077653417</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -3421,7 +3447,7 @@
         <v>-9.3429661220472013</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -3486,7 +3512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -3551,7 +3577,7 @@
         <v>10.059284878779479</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -3616,7 +3642,7 @@
         <v>4.5660174262149704</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -3681,7 +3707,7 @@
         <v>15.33993663741307</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -3746,7 +3772,7 @@
         <v>9.6635784722940219</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -3811,7 +3837,7 @@
         <v>-9.0298287869045932</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -3876,7 +3902,7 @@
         <v>12.546401273310289</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -3941,7 +3967,7 @@
         <v>11.79879634846316</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -4006,7 +4032,7 @@
         <v>14.04615921439613</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -4071,7 +4097,7 @@
         <v>-29.0895756047139</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -4136,7 +4162,7 @@
         <v>-7.7618746640360472</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -4201,7 +4227,7 @@
         <v>-2.4926806379977142</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -4266,7 +4292,7 @@
         <v>58.744635193133043</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -4331,7 +4357,7 @@
         <v>2.7421127162004271</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -4393,7 +4419,7 @@
         <v>4.5684082566905513</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -4458,7 +4484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -4523,7 +4549,33 @@
         <v>1.850312093780367</v>
       </c>
     </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="I59" s="3">
+        <f>SUBTOTAL(9,I2:I26)</f>
+        <v>63019405.383561626</v>
+      </c>
+      <c r="L59" s="3">
+        <f>SUBTOTAL(9,L2:L26)</f>
+        <v>2376343</v>
+      </c>
+      <c r="M59" s="4">
+        <f>L59/I59</f>
+        <v>3.7708115231119908E-2</v>
+      </c>
+      <c r="Q59" s="3"/>
+      <c r="R59" s="3">
+        <f>SUBTOTAL(9,R2:R26)</f>
+        <v>1643492</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:U57">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="원화"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
